--- a/resources/assets/excel/20170523-BDD1.xlsx
+++ b/resources/assets/excel/20170523-BDD1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Durchgeführte Aufträge</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>DIMOTRANS CASTELNAU D'ESTREFONDS, FR-31620 Castelnau d' Estrétefonds</t>
+  </si>
+  <si>
+    <t>DIMOTRANS CASTELNAU D'ESTREFONDS</t>
+  </si>
+  <si>
+    <t>lalalalaa</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +903,172 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42872</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42878</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>2278873</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>56565</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>82362</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8">
+        <v>6000</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>650</v>
+      </c>
+      <c r="V8">
+        <v>500</v>
+      </c>
+      <c r="W8">
+        <v>150</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42882</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42885</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>2278883</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>56565</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>82362</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <v>6000</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>650</v>
+      </c>
+      <c r="V9">
+        <v>500</v>
+      </c>
+      <c r="W9">
+        <v>150</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
